--- a/Calendar.xlsx
+++ b/Calendar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="58">
   <si>
     <t>Ώρες \ Ημέρες</t>
   </si>
@@ -34,23 +34,107 @@
     <t>Παρασκευή</t>
   </si>
   <si>
+    <t>Σάββατο</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>ΜΑΘΗΜΑΤΙΚΑ ΤΗΣ ΔΙΟΙΚΗΤΙΚΗΣ ΕΠΙΣΤΗΜΗΣ
+Κ6.101</t>
+  </si>
+  <si>
+    <t>ΕΠΙΧΕΙΡΗΣΙΑΚΗ ΠΟΛΙΤΙΚΗ ΚΑΙ ΣΤΡΑΤΗΓΙΚΗ - ΣΤΡΑΤΗΓΙΚΟ ΜΑΝΑΤΖΜΕΝΤ
+Κ2.Συνεδριακό κέντρο</t>
+  </si>
+  <si>
+    <t>ΣΥΝΕΔΡΙΟ ΧΡΗΜΑΤΟ-ΟΙΚΟΝΟΜΙΚΗΣ ΜΗΧΑΝΙΚΗΣ ΚΑΙ ΤΡΑΠΕΖΙΚΗΣ
+Κ2.Συνεδριακό κέντρο</t>
+  </si>
+  <si>
+    <t>ΔΙΟΙΚΗΣΗ ΕΣΟΔΩΝ ΞΕΝΟΔΟΧΕΙΑΚΩΝ ΕΠΙΧΕΙΡΗΣΕΩΝ
+Κ6.120</t>
+  </si>
+  <si>
+    <t>ΕΙΣΑΓΩΓΗ ΣΤΟΝ ΤΟΥΡΙΣΜΟ
+Κ2.Συνεδριακό κέντρο</t>
+  </si>
+  <si>
+    <t>ΤΟΥΡΙΣΤΙΚΗ ΑΝΑΠΤΥΞΗ ΚΑΙ ΠΟΛΙΤΙΚΗ
+Κ6.101</t>
+  </si>
+  <si>
+    <t>ΔΙΕΘΝΗ ΣΥΣΤΗΜΑΤΑ ΚΡΑΤΗΣΕΩΝ
+Κ6.101</t>
+  </si>
+  <si>
     <t>09:00</t>
   </si>
   <si>
-    <t>ΓΡΑΜΜΙΚΗ ΑΛΓΕΒΡΑ [3]
-ΦΑΜΕΛΗΣ
-Α.ΑΜΦΙΘΕΑΤΡΟ ΧΑΤΖΗΝΙΚΟΛΑΟΥ</t>
+    <t>ΔΙΟΙΚΗΣΗ ΞΕΝΟΔΟΧΕΙΑΚΗΣ ΕΜΨΥΧΩΤΙΚΗΣ
+Κ6.108</t>
   </si>
   <si>
     <t>10:00</t>
   </si>
   <si>
+    <t>ΕΙΣΑΓΩΓΗ ΣΤΙΣ ΤΕΧΝΙΚΕΣ ΦΩΤΟΓΡΑΦΙΑΣ ΚΑΙ ΤΟΥΡΙΣΜΟΣ
+Κ6.108</t>
+  </si>
+  <si>
+    <t>ΠΜΣ ΚΑΙΝΟΤΟΜΊΑ ΚΑΙ ΕΠΙΧΕΙΡΗΜΑΤΙΚΌΤΗΤΑ ΣΤΟΝ ΤΟΥΡΙΣΜΌ
+Κ6.101</t>
+  </si>
+  <si>
+    <t>ΠΜΣ ΚΑΙΝΟΤΟΜΊΑ ΚΑΙ ΕΠΙΧΕΙΡΗΜΑΤΙΚΌΤΗΤΑ ΣΤΟΝ ΤΟΥΡΙΣΜΌ
+Κ6.120</t>
+  </si>
+  <si>
     <t>11:00</t>
   </si>
   <si>
-    <t>ΑΣΥΡΜΑΤΕΣ ΖΕΥΞΕΙΣ ΚΑΙ ΔΙΑΔΟΣΗ
-ΒΟΥΔΟΥΡΗΣ - ΣΑΒΒΑΪΔΗΣ
-Ζ.Β010</t>
+    <t>ΕΠΙΚΟΙΝΩΝΙΑΚΕΣ ΔΕΞΙΟΤΗΤΕΣ ΣΤΟΝ ΤΟΥΡΙΣΜΟ
+Κ6.120</t>
+  </si>
+  <si>
+    <t>ΜΕΛΕΤΕΣ ΠΕΡΙΠΤΩΣΗΣ ΣΤΟΝ ΤΟΥΡΙΣΜΟ
+Κ6.101</t>
+  </si>
+  <si>
+    <t>ΟΡΓΑΝΩΣΗ ΣΥΝΕΔΡΙΩΝ ΚΑΙ ΕΚΔΗΛΩΣΕΩΝ
+Κ6.101</t>
+  </si>
+  <si>
+    <t>ΤΟΥΡΙΣΤΙΚΟ ΜΑΡΚΕΤΙΝΓΚ
+Κ2.Συνεδριακό κέντρο</t>
+  </si>
+  <si>
+    <t>ENGLISH FOR TOURISM
+Κ6.108</t>
+  </si>
+  <si>
+    <t>ΑΣΤΙΚΟΣ ΤΟΥΡΙΣΜΟΣ ΚΑΙ ΑΡΧΙΤΕΚΤΟΝΙΚΗ ΚΛΗΡΟΝΟΜΙΑ
+Κ6.120</t>
+  </si>
+  <si>
+    <t>ΣΤΑΤΙΣΤΙΚΗ ΕΠΙΧΕΙΡΗΣΕΩΝ ΚΑΙ ΟΡΓΑΝΙΣΜΩΝ
+Κ6.101</t>
+  </si>
+  <si>
+    <t>ΔΙΚΑΙΟ ΤΟΥΡΙΣΤΙΚΗΣ ΝΑΥΤΙΛΙΑΣ
+Κ6.120</t>
+  </si>
+  <si>
+    <t>ΚΟΙΝΩΝΙΟΛΟΓΙΑ ΤΟΥ ΤΟΥΡΙΣΜΟΥ
+Κ2.Συνεδριακό κέντρο</t>
+  </si>
+  <si>
+    <t>ΘΑΛΑΣΣΙΟΣ ΤΟΥΡΙΣΜΟΣ
+Κ6.120</t>
+  </si>
+  <si>
+    <t>ΚΟΙΝΩΝΙΚΑ ΔΙΚΤΥΑ ΚΑΙ ΝΕΕΣ ΤΕΧΝΟΛΟΓΙΕΣ ΣΤΟΝ ΤΟΥΡΙΣΜΟ
+Κ6.101</t>
   </si>
   <si>
     <t>12:00</t>
@@ -59,29 +143,88 @@
     <t>13:00</t>
   </si>
   <si>
-    <t>ΑΛΓΟΡΙΘΜΟΙ KAI ΔΟΜΕΣ ΔΕΔΟΜΕΝΩΝ [3]
-ΜΕΤΑΦΑΣ
-Β.226</t>
+    <t>ΑΡΧΕΣ ΧΡΗΜΑΤΟΟΙΚΟΝΟΜΙΚΗΣ ΛΟΓΙΣΤΙΚΗΣ
+Κ6.101</t>
   </si>
   <si>
     <t>14:00</t>
   </si>
   <si>
+    <t>ΕΠΑΓΓΕΛΜΑΤΙΚΑ ΙΤΑΛΙΚΑ
+Κ6.101</t>
+  </si>
+  <si>
+    <t>ΔΙΑΦΗΜΙΣΗ - ΔΗΜΟΣΙΕΣ ΣΧΕΣΕΙΣ ΤΟΥΡ. ΕΠΙΧ. ΚΑΙ ΟΡΓΑΝΙΣΜΩΝ
+Κ6.101</t>
+  </si>
+  <si>
+    <t>ΕΚΠΑΙΔΕΥΤΙΚΗ ΠΟΛΙΤΙΚΗ ΚΑΙ ΤΟΥΡΙΣΤΙΚΗ ΕΚΠΑΙΔΕΥΣΗ
+Κ2.Συνεδριακό κέντρο</t>
+  </si>
+  <si>
+    <t>ΠΜΣ ΔΙΟΊΚΗΣΗ ΕΠΙΧΕΙΡΗΣΙΑΚΏΝ ΛΕΙΤΟΥΡΓΙΏΝ
+Κ6.120</t>
+  </si>
+  <si>
+    <t>ΤΟΥΡΙΣΤΙΚΟ ΔΙΚΑΙΟ
+Κ2.Συνεδριακό κέντρο</t>
+  </si>
+  <si>
+    <t>ΠΜΣ ΔΙΟΊΚΗΣΗ ΕΠΙΧΕΙΡΗΣΙΑΚΏΝ ΛΕΙΤΟΥΡΓΙΏΝ
+Κ6.108</t>
+  </si>
+  <si>
     <t>15:00</t>
   </si>
   <si>
     <t>16:00</t>
   </si>
   <si>
+    <t>ΕΙΔΙΚΑ ΘΕΜΑΤΑ ΚΟΣΤΟΛΟΓΗΣΗΣ ΚΑΙ ΦΟΡΟΛΟΓΙΑΣ ΕΠΙΧΕΙΡΗΣΕΩΝ
+Κ6.108</t>
+  </si>
+  <si>
+    <t>ΔΙΟΙΚΗΣΗ ΕΠΙΣΙΤΙΣΤΙΚΩΝ ΤΜΗΜΑΤΩΝ ΞΕΝΟΔΟΧΕΙΩΝ
+Κ6.101</t>
+  </si>
+  <si>
+    <t>ΕΙΣΑΓΩΓΗ ΣΤΗΝ ΔΙΟΙΚΗΣΗ ΤΟΥΡΙΣΤΙΚΩΝ ΕΠΙΧΕΙΡΗΣΕΩΝ
+Κ6.108</t>
+  </si>
+  <si>
     <t>17:00</t>
   </si>
   <si>
-    <t>ΑΛΓΟΡΙΘΜΟΙ KAI ΔΟΜΕΣ ΔΕΔΟΜΕΝΩΝ [3]
-ΜΕΤΑΦΑΣ
-Ζ.Β002</t>
+    <t>ΣΥΓΧΡΟΝΑ ΟΙΚΟΝΟΜΙΚΑ ΘΕΜΑΤΑ
+Κ6.108</t>
+  </si>
+  <si>
+    <t>ΔΙΑΠΟΛΙΤΙΣΜΙΚΗ ΕΠΙΚΟΙΝΩΝΙΑ
+Κ6.108</t>
+  </si>
+  <si>
+    <t>ΔΙΟΙΚΗΣΗ ΤΜΗΜΑΤΩΝ ΥΠΟΔΟΧΗΣ
+Κ2.Συνεδριακό κέντρο</t>
   </si>
   <si>
     <t>18:00</t>
+  </si>
+  <si>
+    <t>ΜΙΚΡΟΟΙΚΟΝΟΜΙΚΗ ΑΝΑΛΥΣΗ
+Κ2.Συνεδριακό κέντρο</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>ΔΙΟΙΚΗΣΗ ΞΕΝΟΔΟΧΕΙΑΚΗΣ ΕΜΨΥΧΩΤΙΚΗΣ
+Κ6.101</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>21:00</t>
   </si>
 </sst>
 </file>
@@ -126,13 +269,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4B084"/>
+        <fgColor rgb="FFFDE9D8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDE9D8"/>
+        <fgColor rgb="FFF4B084"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,165 +615,618 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="40" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="38" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="23.7109375" customWidth="1"/>
+    <col min="1" max="24" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="40" customHeight="1">
+    <row r="1" spans="1:23" ht="38" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="40" customHeight="1">
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" ht="38" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="40" customHeight="1">
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+    </row>
+    <row r="3" spans="1:23" ht="38" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="40" customHeight="1">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="1:23" ht="38" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="40" customHeight="1">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="38" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="40" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="4"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:23" ht="38" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="40" customHeight="1">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="1:23" ht="38" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="40" customHeight="1">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="1:23" ht="38" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="40" customHeight="1">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" s="4"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="1:23" ht="38" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="40" customHeight="1">
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="1:23" ht="38" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>44</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="40" customHeight="1">
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="1:23" ht="38" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" ht="38" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+    </row>
+    <row r="13" spans="1:23" ht="38" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" spans="1:23" ht="38" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+    </row>
+    <row r="15" spans="1:23" ht="38" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F2:F11"/>
+  <mergeCells count="82">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="G8:G14"/>
+    <mergeCell ref="H2:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I2:I15"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L2:L7"/>
+    <mergeCell ref="L8:L14"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M5:M9"/>
+    <mergeCell ref="M10:M15"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N15"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="Q8:Q14"/>
+    <mergeCell ref="R2:R6"/>
+    <mergeCell ref="R7:R15"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="S8:S10"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="T8:T14"/>
+    <mergeCell ref="U2:U9"/>
+    <mergeCell ref="U10:U14"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="V4:V14"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="W4:W14"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.7" bottom="0.7" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
 </worksheet>
 </file>